--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519BF609-7C2E-4880-8B71-E63108AA5CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515CE71-BBB0-420E-AD2D-E17ABB9739F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -134,6 +134,9 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
     <sheetNames>
       <sheetName val="Main"/>
       <sheetName val="Energy, Winter"/>
@@ -154,7 +157,7 @@
         </row>
         <row r="4">
           <cell r="B4">
-            <v>1.4999999999999999E-2</v>
+            <v>2.5000000000000001E-2</v>
           </cell>
         </row>
         <row r="5">
@@ -2226,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2279,7 +2282,7 @@
       </c>
       <c r="B6" s="1">
         <f>(1+[1]Main!$B$4)^($B$3-[1]Main!$B$1)</f>
-        <v>1.3468550065500522</v>
+        <v>1.6386164402903955</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2390,99 +2393,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Winter'!B2*Scenarios!$B$6</f>
-        <v>123.57394685096729</v>
+        <v>150.34305839664378</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Winter'!C2*Scenarios!$B$6</f>
-        <v>116.0719644644835</v>
+        <v>141.21596482422629</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Winter'!D2*Scenarios!$B$6</f>
-        <v>110.57679603775928</v>
+        <v>134.53040974784147</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Winter'!E2*Scenarios!$B$6</f>
-        <v>107.74840052400418</v>
+        <v>131.08931522323164</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Winter'!F2*Scenarios!$B$6</f>
-        <v>107.20965852138414</v>
+        <v>130.43386864711547</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Winter'!G2*Scenarios!$B$6</f>
-        <v>109.22994103120922</v>
+        <v>132.89179330755107</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Winter'!H2*Scenarios!$B$6</f>
-        <v>115.70831361271497</v>
+        <v>140.77353838534788</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Winter'!I2*Scenarios!$B$6</f>
-        <v>137.44655341843281</v>
+        <v>167.22080773163486</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Winter'!J2*Scenarios!$B$6</f>
-        <v>153.32597394565795</v>
+        <v>186.54009556265862</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Winter'!K2*Scenarios!$B$6</f>
-        <v>148.15405072050575</v>
+        <v>180.2478084319435</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Winter'!L2*Scenarios!$B$6</f>
-        <v>131.49345428948158</v>
+        <v>159.9781230655513</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Winter'!M2*Scenarios!$B$6</f>
-        <v>116.0719644644835</v>
+        <v>141.21596482422629</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Winter'!N2*Scenarios!$B$6</f>
-        <v>112.98766649948388</v>
+        <v>137.46353317596129</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Winter'!O2*Scenarios!$B$6</f>
-        <v>110.6845444382833</v>
+        <v>134.66149906306472</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Winter'!P2*Scenarios!$B$6</f>
-        <v>111.78896554365433</v>
+        <v>136.00516454410283</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Winter'!Q2*Scenarios!$B$6</f>
-        <v>114.48267555675443</v>
+        <v>139.28239742468361</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Winter'!R2*Scenarios!$B$6</f>
-        <v>131.49345428948158</v>
+        <v>159.9781230655513</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Winter'!S2*Scenarios!$B$6</f>
-        <v>159.60231827618119</v>
+        <v>194.17604817441187</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Winter'!T2*Scenarios!$B$6</f>
-        <v>173.65001599449823</v>
+        <v>211.2668176466407</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Winter'!U2*Scenarios!$B$6</f>
-        <v>178.20238591663741</v>
+        <v>216.80534121482225</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Winter'!V2*Scenarios!$B$6</f>
-        <v>158.83461092244767</v>
+        <v>193.24203680344635</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Winter'!W2*Scenarios!$B$6</f>
-        <v>145.90480285956716</v>
+        <v>177.51131897665854</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Winter'!X2*Scenarios!$B$6</f>
-        <v>134.68550065500523</v>
+        <v>163.86164402903955</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Winter'!Y2*Scenarios!$B$6</f>
-        <v>125.60769791085788</v>
+        <v>152.81736922148229</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2491,99 +2494,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Winter'!B3*Scenarios!$B$6</f>
-        <v>119.84315848282365</v>
+        <v>145.8040908570394</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Winter'!C3*Scenarios!$B$6</f>
-        <v>116.43561531625201</v>
+        <v>141.6583912631047</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Winter'!D3*Scenarios!$B$6</f>
-        <v>114.46920700668893</v>
+        <v>139.26601126028072</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Winter'!E3*Scenarios!$B$6</f>
-        <v>111.78896554365433</v>
+        <v>136.00516454410283</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Winter'!F3*Scenarios!$B$6</f>
-        <v>111.97752524457134</v>
+        <v>136.23457084574349</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Winter'!G3*Scenarios!$B$6</f>
-        <v>114.48267555675443</v>
+        <v>139.28239742468361</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Winter'!H3*Scenarios!$B$6</f>
-        <v>119.87009558295465</v>
+        <v>145.8368631858452</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Winter'!I3*Scenarios!$B$6</f>
-        <v>134.68550065500523</v>
+        <v>163.86164402903955</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Winter'!J3*Scenarios!$B$6</f>
-        <v>141.10999903624895</v>
+        <v>171.67784444922472</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Winter'!K3*Scenarios!$B$6</f>
-        <v>141.41977568775548</v>
+        <v>172.05472623049153</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Winter'!L3*Scenarios!$B$6</f>
-        <v>134.68550065500523</v>
+        <v>163.86164402903955</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Winter'!M3*Scenarios!$B$6</f>
-        <v>127.38554651950393</v>
+        <v>154.98034292266561</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Winter'!N3*Scenarios!$B$6</f>
-        <v>123.91066060260481</v>
+        <v>150.75271250671639</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Winter'!O3*Scenarios!$B$6</f>
-        <v>123.61435250116379</v>
+        <v>150.39221688985251</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Winter'!P3*Scenarios!$B$6</f>
-        <v>121.3516360901597</v>
+        <v>147.63934127016464</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Winter'!Q3*Scenarios!$B$6</f>
-        <v>123.9241291526703</v>
+        <v>150.76909867111931</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Winter'!R3*Scenarios!$B$6</f>
-        <v>136.00541856142428</v>
+        <v>165.46748814052415</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Winter'!S3*Scenarios!$B$6</f>
-        <v>144.24817120151059</v>
+        <v>175.49582075510136</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Winter'!T3*Scenarios!$B$6</f>
-        <v>169.70373082530656</v>
+        <v>206.46567147658985</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Winter'!U3*Scenarios!$B$6</f>
-        <v>160.90876763253473</v>
+        <v>195.76550612149356</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Winter'!V3*Scenarios!$B$6</f>
-        <v>148.15405072050575</v>
+        <v>180.2478084319435</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Winter'!W3*Scenarios!$B$6</f>
-        <v>137.72939296980834</v>
+        <v>167.56491718409586</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Winter'!X3*Scenarios!$B$6</f>
-        <v>131.99179064190511</v>
+        <v>160.58441114845877</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Winter'!Y3*Scenarios!$B$6</f>
-        <v>128.61118457546448</v>
+        <v>156.47148388332985</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -2592,99 +2595,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Winter'!B4*Scenarios!$B$6</f>
-        <v>124.35512275476631</v>
+        <v>151.29345593201222</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Winter'!C4*Scenarios!$B$6</f>
-        <v>121.37857319029071</v>
+        <v>147.67211359897044</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Winter'!D4*Scenarios!$B$6</f>
-        <v>117.18985411992004</v>
+        <v>142.57601646966734</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Winter'!E4*Scenarios!$B$6</f>
-        <v>115.56015956199447</v>
+        <v>140.59329057691593</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Winter'!F4*Scenarios!$B$6</f>
-        <v>114.48267555675443</v>
+        <v>139.28239742468361</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Winter'!G4*Scenarios!$B$6</f>
-        <v>116.2335870652695</v>
+        <v>141.41259879706112</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Winter'!H4*Scenarios!$B$6</f>
-        <v>127.95122562225495</v>
+        <v>155.66856182758758</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Winter'!I4*Scenarios!$B$6</f>
-        <v>139.99210938081242</v>
+        <v>170.3177928037837</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Winter'!J4*Scenarios!$B$6</f>
-        <v>163.50819779517636</v>
+        <v>198.92803585125404</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Winter'!K4*Scenarios!$B$6</f>
-        <v>163.50819779517636</v>
+        <v>198.92803585125404</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Winter'!L4*Scenarios!$B$6</f>
-        <v>141.93158059024449</v>
+        <v>172.67740047780188</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Winter'!M4*Scenarios!$B$6</f>
-        <v>138.68566002445888</v>
+        <v>168.72833485670202</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Winter'!N4*Scenarios!$B$6</f>
-        <v>134.67203210493972</v>
+        <v>163.84525786463664</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Winter'!O4*Scenarios!$B$6</f>
-        <v>132.66521814518015</v>
+        <v>161.40371936860396</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Winter'!P4*Scenarios!$B$6</f>
-        <v>127.62798042068296</v>
+        <v>155.27529388191789</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Winter'!Q4*Scenarios!$B$6</f>
-        <v>127.58757477048646</v>
+        <v>155.22613538870917</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Winter'!R4*Scenarios!$B$6</f>
-        <v>133.83698200087869</v>
+        <v>162.82931567165662</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Winter'!S4*Scenarios!$B$6</f>
-        <v>138.32200917269037</v>
+        <v>168.28590841782363</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Winter'!T4*Scenarios!$B$6</f>
-        <v>149.89149367895533</v>
+        <v>182.36162363991812</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Winter'!U4*Scenarios!$B$6</f>
-        <v>163.50819779517636</v>
+        <v>198.92803585125404</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Winter'!V4*Scenarios!$B$6</f>
-        <v>161.62260078600627</v>
+        <v>196.63397283484747</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Winter'!W4*Scenarios!$B$6</f>
-        <v>145.0697527555061</v>
+        <v>176.49537678367849</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Winter'!X4*Scenarios!$B$6</f>
-        <v>136.46334926365128</v>
+        <v>166.02461773022287</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Winter'!Y4*Scenarios!$B$6</f>
-        <v>124.82652200705884</v>
+        <v>151.86697168611386</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -2838,99 +2841,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Spring'!B2*Scenarios!$B$6</f>
-        <v>59.261620288202295</v>
+        <v>72.099123372777399</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Spring'!C2*Scenarios!$B$6</f>
-        <v>62.790380405363429</v>
+        <v>76.392298446338231</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Spring'!D2*Scenarios!$B$6</f>
-        <v>64.864537115450503</v>
+        <v>78.91576776438545</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Spring'!E2*Scenarios!$B$6</f>
-        <v>65.187782317022524</v>
+        <v>79.309035710055142</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Spring'!F2*Scenarios!$B$6</f>
-        <v>68.016177830777636</v>
+        <v>82.750130234664979</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Spring'!G2*Scenarios!$B$6</f>
-        <v>75.410411816737422</v>
+        <v>91.746134491859252</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Spring'!H2*Scenarios!$B$6</f>
-        <v>79.222011485274066</v>
+        <v>96.383419017881067</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Spring'!I2*Scenarios!$B$6</f>
-        <v>67.315813227371606</v>
+        <v>81.898049685713971</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Spring'!J2*Scenarios!$B$6</f>
-        <v>45.523699221391759</v>
+        <v>55.385235681815367</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Spring'!K2*Scenarios!$B$6</f>
-        <v>18.182542588425704</v>
+        <v>22.121321943920339</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Spring'!L2*Scenarios!$B$6</f>
-        <v>15.219461574015591</v>
+        <v>18.516365775281471</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Spring'!M2*Scenarios!$B$6</f>
-        <v>12.727779811897992</v>
+        <v>15.484925360744237</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Spring'!N2*Scenarios!$B$6</f>
-        <v>6.0608475294752351</v>
+        <v>7.3737739813067797</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Spring'!O2*Scenarios!$B$6</f>
-        <v>4.2156561705016635</v>
+        <v>5.1288694581089382</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Spring'!P2*Scenarios!$B$6</f>
-        <v>0.72730170353702828</v>
+        <v>0.88485287775681365</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Spring'!Q2*Scenarios!$B$6</f>
-        <v>4.3772787712876697</v>
+        <v>5.3255034309437859</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Spring'!R2*Scenarios!$B$6</f>
-        <v>6.7342750327502614</v>
+        <v>8.1930822014519773</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Spring'!S2*Scenarios!$B$6</f>
-        <v>20.431790449364293</v>
+        <v>24.8578113992053</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Spring'!T2*Scenarios!$B$6</f>
-        <v>45.523699221391759</v>
+        <v>55.385235681815367</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Spring'!U2*Scenarios!$B$6</f>
-        <v>66.15751792173856</v>
+        <v>80.488839547064231</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Spring'!V2*Scenarios!$B$6</f>
-        <v>79.881970438483592</v>
+        <v>97.186341073623367</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Spring'!W2*Scenarios!$B$6</f>
-        <v>77.619254027479514</v>
+        <v>94.433465453935497</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Spring'!X2*Scenarios!$B$6</f>
-        <v>65.995895320952556</v>
+        <v>80.292205574229385</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Spring'!Y2*Scenarios!$B$6</f>
-        <v>97.552708124420292</v>
+        <v>118.68498877023336</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -2939,99 +2942,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Spring'!B3*Scenarios!$B$6</f>
-        <v>94.953277961778682</v>
+        <v>115.52245904047288</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Spring'!C3*Scenarios!$B$6</f>
-        <v>93.108086602805102</v>
+        <v>113.27755451727504</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Spring'!D3*Scenarios!$B$6</f>
-        <v>92.932995451953602</v>
+        <v>113.06453438003729</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Spring'!E3*Scenarios!$B$6</f>
-        <v>91.599608995469055</v>
+        <v>111.44230410414981</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Spring'!F3*Scenarios!$B$6</f>
-        <v>92.717498650905597</v>
+        <v>112.80235574959083</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Spring'!G3*Scenarios!$B$6</f>
-        <v>90.2392854388535</v>
+        <v>109.7873014994565</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Spring'!H3*Scenarios!$B$6</f>
-        <v>91.478392044879541</v>
+        <v>111.29482862452367</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Spring'!I3*Scenarios!$B$6</f>
-        <v>98.145324327302305</v>
+        <v>119.40598000396113</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Spring'!J3*Scenarios!$B$6</f>
-        <v>56.163853773137177</v>
+        <v>68.330305560109494</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Spring'!K3*Scenarios!$B$6</f>
-        <v>40.405650196501568</v>
+        <v>49.158493208711867</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Spring'!L3*Scenarios!$B$6</f>
-        <v>25.347811223271982</v>
+        <v>30.838761406265245</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Spring'!M3*Scenarios!$B$6</f>
-        <v>27.516247783817565</v>
+        <v>33.476933875132779</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Spring'!N3*Scenarios!$B$6</f>
-        <v>19.798768596285765</v>
+        <v>24.087661672268812</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Spring'!O3*Scenarios!$B$6</f>
-        <v>13.010619363273504</v>
+        <v>15.829034813205221</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Spring'!P3*Scenarios!$B$6</f>
-        <v>11.057679603775929</v>
+        <v>13.453040974784148</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Spring'!Q3*Scenarios!$B$6</f>
-        <v>10.020601248732389</v>
+        <v>12.191306315760544</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Spring'!R3*Scenarios!$B$6</f>
-        <v>19.798768596285765</v>
+        <v>24.087661672268812</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Spring'!S3*Scenarios!$B$6</f>
-        <v>26.182861327333015</v>
+        <v>31.85470359924529</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Spring'!T3*Scenarios!$B$6</f>
-        <v>46.857085677876313</v>
+        <v>57.007465957702863</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Spring'!U3*Scenarios!$B$6</f>
-        <v>84.488214560884771</v>
+        <v>102.79040929941651</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Spring'!V3*Scenarios!$B$6</f>
-        <v>91.599608995469055</v>
+        <v>111.44230410414981</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Spring'!W3*Scenarios!$B$6</f>
-        <v>89.929508787346975</v>
+        <v>109.4104197181897</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Spring'!X3*Scenarios!$B$6</f>
-        <v>84.959613813177285</v>
+        <v>103.36392505351814</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Spring'!Y3*Scenarios!$B$6</f>
-        <v>96.973560471603761</v>
+        <v>117.98038370090848</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3040,99 +3043,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Spring'!B4*Scenarios!$B$6</f>
-        <v>92.798309951298606</v>
+        <v>112.90067273600826</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Spring'!C4*Scenarios!$B$6</f>
-        <v>88.757744931648446</v>
+        <v>107.98482341513707</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Spring'!D4*Scenarios!$B$6</f>
-        <v>89.323424034399451</v>
+        <v>108.67304232005903</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Spring'!E4*Scenarios!$B$6</f>
-        <v>87.222330224181391</v>
+        <v>106.11680067320603</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Spring'!F4*Scenarios!$B$6</f>
-        <v>91.42451784461754</v>
+        <v>111.22928396691204</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Spring'!G4*Scenarios!$B$6</f>
-        <v>84.717179911998286</v>
+        <v>103.06897409426588</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Spring'!H4*Scenarios!$B$6</f>
-        <v>89.471578085119972</v>
+        <v>108.85329012849098</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Spring'!I4*Scenarios!$B$6</f>
-        <v>78.898766283702059</v>
+        <v>95.990151072211361</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Spring'!J4*Scenarios!$B$6</f>
-        <v>52.055946003159512</v>
+        <v>63.332525417223785</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Spring'!K4*Scenarios!$B$6</f>
-        <v>32.553485508314765</v>
+        <v>39.605359361818863</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Spring'!L4*Scenarios!$B$6</f>
-        <v>29.630810144101147</v>
+        <v>36.049561686388699</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Spring'!M4*Scenarios!$B$6</f>
-        <v>29.307564942529137</v>
+        <v>35.656293740719008</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Spring'!N4*Scenarios!$B$6</f>
-        <v>15.785140676766613</v>
+        <v>19.204584680203435</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Spring'!O4*Scenarios!$B$6</f>
-        <v>13.778326717007035</v>
+        <v>16.763046184170747</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Spring'!P4*Scenarios!$B$6</f>
-        <v>4.3772787712876697</v>
+        <v>5.3255034309437859</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Spring'!Q4*Scenarios!$B$6</f>
-        <v>4.3772787712876697</v>
+        <v>5.3255034309437859</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Spring'!R4*Scenarios!$B$6</f>
-        <v>11.407861905478942</v>
+        <v>13.87908124925965</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Spring'!S4*Scenarios!$B$6</f>
-        <v>33.80606066440631</v>
+        <v>41.129272651288929</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Spring'!T4*Scenarios!$B$6</f>
-        <v>55.490426269862155</v>
+        <v>67.510997339964305</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Spring'!U4*Scenarios!$B$6</f>
-        <v>77.093980574924984</v>
+        <v>93.794405042222238</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Spring'!V4*Scenarios!$B$6</f>
-        <v>100.51578913883039</v>
+        <v>122.28994493887221</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Spring'!W4*Scenarios!$B$6</f>
-        <v>91.42451784461754</v>
+        <v>111.22928396691204</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Spring'!X4*Scenarios!$B$6</f>
-        <v>95.626705465053703</v>
+        <v>116.34176726061808</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Spring'!Y4*Scenarios!$B$6</f>
-        <v>96.973560471603761</v>
+        <v>117.98038370090848</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -3286,99 +3289,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Summer'!B2*Scenarios!$B$6</f>
-        <v>152.38317544107289</v>
+        <v>185.39306405445535</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Summer'!C2*Scenarios!$B$6</f>
-        <v>151.35956563609486</v>
+        <v>184.14771555983464</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Summer'!D2*Scenarios!$B$6</f>
-        <v>151.70974793779789</v>
+        <v>184.57375583431016</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Summer'!E2*Scenarios!$B$6</f>
-        <v>151.62893663740488</v>
+        <v>184.47543884789272</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Summer'!F2*Scenarios!$B$6</f>
-        <v>152.03299313936989</v>
+        <v>184.96702377997985</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Summer'!G2*Scenarios!$B$6</f>
-        <v>157.36653896530811</v>
+        <v>191.45594488352981</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Summer'!H2*Scenarios!$B$6</f>
-        <v>162.59233639072229</v>
+        <v>197.81377667185654</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Summer'!I2*Scenarios!$B$6</f>
-        <v>157.36653896530811</v>
+        <v>191.45594488352981</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Summer'!J2*Scenarios!$B$6</f>
-        <v>151.95218183897688</v>
+        <v>184.86870679356241</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Summer'!K2*Scenarios!$B$6</f>
-        <v>150.74001233308184</v>
+        <v>183.39395199730106</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Summer'!L2*Scenarios!$B$6</f>
-        <v>131.99179064190511</v>
+        <v>160.58441114845877</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Summer'!M2*Scenarios!$B$6</f>
-        <v>125.23057850902386</v>
+        <v>152.35855661820099</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Summer'!N2*Scenarios!$B$6</f>
-        <v>124.97467605777935</v>
+        <v>152.0472194945458</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Summer'!O2*Scenarios!$B$6</f>
-        <v>119.85662703288914</v>
+        <v>145.82047702144229</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Summer'!P2*Scenarios!$B$6</f>
-        <v>111.78896554365433</v>
+        <v>136.00516454410283</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Summer'!Q2*Scenarios!$B$6</f>
-        <v>110.17273953579426</v>
+        <v>134.03882481575434</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Summer'!R2*Scenarios!$B$6</f>
-        <v>110.17273953579426</v>
+        <v>134.03882481575434</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Summer'!S2*Scenarios!$B$6</f>
-        <v>127.10270696812843</v>
+        <v>154.63623347020464</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Summer'!T2*Scenarios!$B$6</f>
-        <v>147.0765667152657</v>
+        <v>178.9369152797112</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Summer'!U2*Scenarios!$B$6</f>
-        <v>158.39014877028612</v>
+        <v>192.7012933781505</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Summer'!V2*Scenarios!$B$6</f>
-        <v>178.67378516892992</v>
+        <v>217.37885696892386</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Summer'!W2*Scenarios!$B$6</f>
-        <v>169.03030332203156</v>
+        <v>205.64636325644463</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Summer'!X2*Scenarios!$B$6</f>
-        <v>157.77059546727313</v>
+        <v>191.94752981561695</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Summer'!Y2*Scenarios!$B$6</f>
-        <v>153.32597394565795</v>
+        <v>186.54009556265862</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -3387,99 +3390,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Summer'!B3*Scenarios!$B$6</f>
-        <v>144.4097938022966</v>
+        <v>175.69245472793622</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Summer'!C3*Scenarios!$B$6</f>
-        <v>144.39632525223109</v>
+        <v>175.67606856353331</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Summer'!D3*Scenarios!$B$6</f>
-        <v>144.39632525223109</v>
+        <v>175.67606856353331</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Summer'!E3*Scenarios!$B$6</f>
-        <v>127.95122562225495</v>
+        <v>155.66856182758758</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Summer'!F3*Scenarios!$B$6</f>
-        <v>137.97182687098734</v>
+        <v>167.85986814334811</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Summer'!G3*Scenarios!$B$6</f>
-        <v>141.41977568775548</v>
+        <v>172.05472623049153</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Summer'!H3*Scenarios!$B$6</f>
-        <v>155.02301125391099</v>
+        <v>188.60475227742452</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Summer'!I3*Scenarios!$B$6</f>
-        <v>137.97182687098734</v>
+        <v>167.85986814334811</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Summer'!J3*Scenarios!$B$6</f>
-        <v>118.48283492620808</v>
+        <v>144.1490882523461</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Summer'!K3*Scenarios!$B$6</f>
-        <v>106.92681897000864</v>
+        <v>130.0897591946545</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Summer'!L3*Scenarios!$B$6</f>
-        <v>107.20965852138414</v>
+        <v>130.43386864711547</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Summer'!M3*Scenarios!$B$6</f>
-        <v>109.22994103120922</v>
+        <v>132.89179330755107</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Summer'!N3*Scenarios!$B$6</f>
-        <v>110.44211053710428</v>
+        <v>134.36654810381245</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Summer'!O3*Scenarios!$B$6</f>
-        <v>111.1020694903138</v>
+        <v>135.16947015955472</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Summer'!P3*Scenarios!$B$6</f>
-        <v>107.20965852138414</v>
+        <v>130.43386864711547</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Summer'!Q3*Scenarios!$B$6</f>
-        <v>107.20965852138414</v>
+        <v>130.43386864711547</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Summer'!R3*Scenarios!$B$6</f>
-        <v>110.44211053710428</v>
+        <v>134.36654810381245</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Summer'!S3*Scenarios!$B$6</f>
-        <v>113.4455972017109</v>
+        <v>138.02066276566003</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Summer'!T3*Scenarios!$B$6</f>
-        <v>119.87009558295465</v>
+        <v>145.8368631858452</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Summer'!U3*Scenarios!$B$6</f>
-        <v>156.50455176111606</v>
+        <v>190.40723036174396</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Summer'!V3*Scenarios!$B$6</f>
-        <v>173.60961034430173</v>
+        <v>211.21765915343201</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Summer'!W3*Scenarios!$B$6</f>
-        <v>164.88198990185739</v>
+        <v>200.59942462035022</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Summer'!X3*Scenarios!$B$6</f>
-        <v>155.66950165705504</v>
+        <v>189.39128816876391</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Summer'!Y3*Scenarios!$B$6</f>
-        <v>145.12362695576812</v>
+        <v>176.56092144129013</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3488,99 +3491,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Summer'!B4*Scenarios!$B$6</f>
-        <v>146.32232791159768</v>
+        <v>178.01929007314857</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Summer'!C4*Scenarios!$B$6</f>
-        <v>140.92143933533197</v>
+        <v>171.44843814758408</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Summer'!D4*Scenarios!$B$6</f>
-        <v>141.75648943939299</v>
+        <v>172.46438034056413</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Summer'!E4*Scenarios!$B$6</f>
-        <v>126.10603426328139</v>
+        <v>153.42365730438974</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Summer'!F4*Scenarios!$B$6</f>
-        <v>127.10270696812843</v>
+        <v>154.63623347020464</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Summer'!G4*Scenarios!$B$6</f>
-        <v>133.94473040140269</v>
+        <v>162.96040498687984</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Summer'!H4*Scenarios!$B$6</f>
-        <v>152.5986722421209</v>
+        <v>185.65524268490182</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Summer'!I4*Scenarios!$B$6</f>
-        <v>147.97895956965425</v>
+        <v>180.03478829470578</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Summer'!J4*Scenarios!$B$6</f>
-        <v>121.21695058950469</v>
+        <v>147.47547962613561</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Summer'!K4*Scenarios!$B$6</f>
-        <v>101.01412549125392</v>
+        <v>122.89623302177966</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Summer'!L4*Scenarios!$B$6</f>
-        <v>87.38395282496738</v>
+        <v>106.31343464604086</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Summer'!M4*Scenarios!$B$6</f>
-        <v>86.93949067280586</v>
+        <v>105.77269122074503</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Summer'!N4*Scenarios!$B$6</f>
-        <v>87.532106875687887</v>
+        <v>106.4936824544728</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Summer'!O4*Scenarios!$B$6</f>
-        <v>87.38395282496738</v>
+        <v>106.31343464604086</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Summer'!P4*Scenarios!$B$6</f>
-        <v>85.350201765076804</v>
+        <v>103.83912382120236</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Summer'!Q4*Scenarios!$B$6</f>
-        <v>80.811300393003137</v>
+        <v>98.316986417423735</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Summer'!R4*Scenarios!$B$6</f>
-        <v>86.077503468613827</v>
+        <v>104.72397669895918</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Summer'!S4*Scenarios!$B$6</f>
-        <v>94.266381908438149</v>
+        <v>114.68676465592478</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Summer'!T4*Scenarios!$B$6</f>
-        <v>115.19650871022597</v>
+        <v>140.15086413803752</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Summer'!U4*Scenarios!$B$6</f>
-        <v>146.83413281408667</v>
+        <v>178.64196432045892</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Summer'!V4*Scenarios!$B$6</f>
-        <v>153.89165304840898</v>
+        <v>187.22831446758062</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Summer'!W4*Scenarios!$B$6</f>
-        <v>146.18764241094269</v>
+        <v>177.85542842911954</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Summer'!X4*Scenarios!$B$6</f>
-        <v>126.84680451688392</v>
+        <v>154.32489634654945</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Summer'!Y4*Scenarios!$B$6</f>
-        <v>99.977047136210373</v>
+        <v>121.63449836275606</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -3734,99 +3737,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Energy, Autumn'!B2*Scenarios!$B$6</f>
-        <v>123.96453480286681</v>
+        <v>150.818257164328</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Energy, Autumn'!C2*Scenarios!$B$6</f>
-        <v>121.16307638924269</v>
+        <v>147.40993496852397</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Energy, Autumn'!D2*Scenarios!$B$6</f>
-        <v>121.3112304399632</v>
+        <v>147.59018277695591</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Energy, Autumn'!E2*Scenarios!$B$6</f>
-        <v>112.89338664902536</v>
+        <v>137.34883002514096</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Energy, Autumn'!F2*Scenarios!$B$6</f>
-        <v>114.96754335911245</v>
+        <v>139.87229934318816</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Energy, Autumn'!G2*Scenarios!$B$6</f>
-        <v>121.0687965387842</v>
+        <v>147.29523181770367</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Energy, Autumn'!H2*Scenarios!$B$6</f>
-        <v>140.26148038212244</v>
+        <v>170.64551609184178</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Energy, Autumn'!I2*Scenarios!$B$6</f>
-        <v>163.17148404353884</v>
+        <v>198.51838174118143</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Energy, Autumn'!J2*Scenarios!$B$6</f>
-        <v>162.6327420409188</v>
+        <v>197.86293516506527</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Energy, Autumn'!K2*Scenarios!$B$6</f>
-        <v>158.98276497316817</v>
+        <v>193.4222846118783</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Energy, Autumn'!L2*Scenarios!$B$6</f>
-        <v>134.52387805421921</v>
+        <v>163.66501005620469</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Energy, Autumn'!M2*Scenarios!$B$6</f>
-        <v>125.68850921125086</v>
+        <v>152.91568620789971</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Energy, Autumn'!N2*Scenarios!$B$6</f>
-        <v>123.08907904860926</v>
+        <v>149.75315647813926</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Energy, Autumn'!O2*Scenarios!$B$6</f>
-        <v>121.3516360901597</v>
+        <v>147.63934127016464</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Energy, Autumn'!P2*Scenarios!$B$6</f>
-        <v>124.44940260522483</v>
+        <v>151.40815908283255</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Energy, Autumn'!Q2*Scenarios!$B$6</f>
-        <v>147.66918291814773</v>
+        <v>179.65790651343897</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Energy, Autumn'!R2*Scenarios!$B$6</f>
-        <v>162.88864449216331</v>
+        <v>198.17427228872043</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Energy, Autumn'!S2*Scenarios!$B$6</f>
-        <v>182.14867108582908</v>
+        <v>221.60648738487311</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Energy, Autumn'!T2*Scenarios!$B$6</f>
-        <v>216.22410275154536</v>
+        <v>263.0634833242201</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Energy, Autumn'!U2*Scenarios!$B$6</f>
-        <v>204.07547059246392</v>
+        <v>248.28316303280076</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Energy, Autumn'!V2*Scenarios!$B$6</f>
-        <v>165.66316580565643</v>
+        <v>201.54982215571866</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Energy, Autumn'!W2*Scenarios!$B$6</f>
-        <v>159.30601017474018</v>
+        <v>193.81555255754799</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Energy, Autumn'!X2*Scenarios!$B$6</f>
-        <v>159.30601017474018</v>
+        <v>193.81555255754799</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Energy, Autumn'!Y2*Scenarios!$B$6</f>
-        <v>147.66918291814773</v>
+        <v>179.65790651343897</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -3835,99 +3838,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Energy, Autumn'!B3*Scenarios!$B$6</f>
-        <v>107.74840052400418</v>
+        <v>131.08931522323164</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Energy, Autumn'!C3*Scenarios!$B$6</f>
-        <v>103.42499595297852</v>
+        <v>125.82935644989948</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Energy, Autumn'!D3*Scenarios!$B$6</f>
-        <v>101.01412549125392</v>
+        <v>122.89623302177966</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Energy, Autumn'!E3*Scenarios!$B$6</f>
-        <v>97.768204925468297</v>
+        <v>118.94716740067982</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Energy, Autumn'!F3*Scenarios!$B$6</f>
-        <v>95.613236914988192</v>
+        <v>116.32538109621517</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Energy, Autumn'!G3*Scenarios!$B$6</f>
-        <v>103.70783550435402</v>
+        <v>126.17346590236046</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Energy, Autumn'!H3*Scenarios!$B$6</f>
-        <v>119.04851402895912</v>
+        <v>144.83730715726807</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Energy, Autumn'!I3*Scenarios!$B$6</f>
-        <v>144.59835350321362</v>
+        <v>175.92186102957686</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Energy, Autumn'!J3*Scenarios!$B$6</f>
-        <v>163.75063169635536</v>
+        <v>199.22298681050628</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Energy, Autumn'!K3*Scenarios!$B$6</f>
-        <v>138.45669467334537</v>
+        <v>168.44977006185266</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Energy, Autumn'!L3*Scenarios!$B$6</f>
-        <v>125.52688661046487</v>
+        <v>152.71905223506488</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Energy, Autumn'!M3*Scenarios!$B$6</f>
-        <v>114.53654975701645</v>
+        <v>139.34794208229525</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Energy, Autumn'!N3*Scenarios!$B$6</f>
-        <v>119.74887863236513</v>
+        <v>145.68938770621907</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Energy, Autumn'!O3*Scenarios!$B$6</f>
-        <v>114.90020060878496</v>
+        <v>139.79036852117366</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Energy, Autumn'!P3*Scenarios!$B$6</f>
-        <v>115.16957161009498</v>
+        <v>140.11809180923174</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Energy, Autumn'!Q3*Scenarios!$B$6</f>
-        <v>128.62465312552999</v>
+        <v>156.48787004773277</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Energy, Autumn'!R3*Scenarios!$B$6</f>
-        <v>152.19461574015591</v>
+        <v>185.16365775281469</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Energy, Autumn'!S3*Scenarios!$B$6</f>
-        <v>175.0911508515068</v>
+        <v>213.02013723775141</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Energy, Autumn'!T3*Scenarios!$B$6</f>
-        <v>180.66713057862398</v>
+        <v>219.80400930055364</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Energy, Autumn'!U3*Scenarios!$B$6</f>
-        <v>181.83889443432253</v>
+        <v>221.2296056036063</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Energy, Autumn'!V3*Scenarios!$B$6</f>
-        <v>200.30427657412375</v>
+        <v>243.69503699998762</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Energy, Autumn'!W3*Scenarios!$B$6</f>
-        <v>180.936501579934</v>
+        <v>220.13173258861175</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Energy, Autumn'!X3*Scenarios!$B$6</f>
-        <v>155.15769675456602</v>
+        <v>188.76861392145358</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Energy, Autumn'!Y3*Scenarios!$B$6</f>
-        <v>137.37921066810532</v>
+        <v>167.13887690962034</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -3936,99 +3939,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Energy, Autumn'!B4*Scenarios!$B$6</f>
-        <v>116.47602096644852</v>
+        <v>141.70754975631343</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Energy, Autumn'!C4*Scenarios!$B$6</f>
-        <v>110.05152258520475</v>
+        <v>133.8913493361282</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Energy, Autumn'!D4*Scenarios!$B$6</f>
-        <v>101.01412549125392</v>
+        <v>122.89623302177966</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Energy, Autumn'!E4*Scenarios!$B$6</f>
-        <v>95.222648963088687</v>
+        <v>115.85018232853098</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Energy, Autumn'!F4*Scenarios!$B$6</f>
-        <v>95.195711862957694</v>
+        <v>115.81740999972517</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Energy, Autumn'!G4*Scenarios!$B$6</f>
-        <v>96.51562976937673</v>
+        <v>117.42325411120974</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Energy, Autumn'!H4*Scenarios!$B$6</f>
-        <v>99.451773683655858</v>
+        <v>120.99543795104282</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Energy, Autumn'!I4*Scenarios!$B$6</f>
-        <v>105.05469051090407</v>
+        <v>127.81208234265085</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Energy, Autumn'!J4*Scenarios!$B$6</f>
-        <v>98.441632428743318</v>
+        <v>119.76647562082502</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Energy, Autumn'!K4*Scenarios!$B$6</f>
-        <v>94.27985045850366</v>
+        <v>114.70315082032769</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Energy, Autumn'!L4*Scenarios!$B$6</f>
-        <v>89.848697486953967</v>
+        <v>109.31210273177227</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Energy, Autumn'!M4*Scenarios!$B$6</f>
-        <v>64.379669313092492</v>
+        <v>78.325865845880898</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Energy, Autumn'!N4*Scenarios!$B$6</f>
-        <v>67.329281777437117</v>
+        <v>81.914435850116874</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Energy, Autumn'!O4*Scenarios!$B$6</f>
-        <v>67.665995529074621</v>
+        <v>82.324089960189482</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Energy, Autumn'!P4*Scenarios!$B$6</f>
-        <v>80.811300393003137</v>
+        <v>98.316986417423735</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Energy, Autumn'!Q4*Scenarios!$B$6</f>
-        <v>94.85899811132019</v>
+        <v>115.40775588965256</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Energy, Autumn'!R4*Scenarios!$B$6</f>
-        <v>112.81257534863238</v>
+        <v>137.25051303872354</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Energy, Autumn'!S4*Scenarios!$B$6</f>
-        <v>142.06626609089952</v>
+        <v>172.84126212183094</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Energy, Autumn'!T4*Scenarios!$B$6</f>
-        <v>169.54210822452058</v>
+        <v>206.26903750375499</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Energy, Autumn'!U4*Scenarios!$B$6</f>
-        <v>161.63606933607178</v>
+        <v>196.65035899925039</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Energy, Autumn'!V4*Scenarios!$B$6</f>
-        <v>161.21854428404126</v>
+        <v>196.14238790276036</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Energy, Autumn'!W4*Scenarios!$B$6</f>
-        <v>149.16419197541828</v>
+        <v>181.47677076216129</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Energy, Autumn'!X4*Scenarios!$B$6</f>
-        <v>136.15357261214479</v>
+        <v>165.6477359489561</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Energy, Autumn'!Y4*Scenarios!$B$6</f>
-        <v>128.82668137651251</v>
+        <v>156.73366251377635</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -4182,99 +4185,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Winter'!B2*Scenarios!$B$6</f>
-        <v>61.786973425483644</v>
+        <v>75.171529198321892</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Winter'!C2*Scenarios!$B$6</f>
-        <v>58.03598223224175</v>
+        <v>70.607982412113145</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Winter'!D2*Scenarios!$B$6</f>
-        <v>55.28839801887964</v>
+        <v>67.265204873920737</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Winter'!E2*Scenarios!$B$6</f>
-        <v>53.874200262002091</v>
+        <v>65.544657611615818</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Winter'!F2*Scenarios!$B$6</f>
-        <v>53.604829260692071</v>
+        <v>65.216934323557737</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Winter'!G2*Scenarios!$B$6</f>
-        <v>54.614970515604611</v>
+        <v>66.445896653775534</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Winter'!H2*Scenarios!$B$6</f>
-        <v>57.854156806357487</v>
+        <v>70.386769192673938</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Winter'!I2*Scenarios!$B$6</f>
-        <v>68.723276709216407</v>
+        <v>83.610403865817432</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Winter'!J2*Scenarios!$B$6</f>
-        <v>76.662986972828975</v>
+        <v>93.270047781329311</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Winter'!K2*Scenarios!$B$6</f>
-        <v>74.077025360252875</v>
+        <v>90.123904215971748</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Winter'!L2*Scenarios!$B$6</f>
-        <v>65.746727144740788</v>
+        <v>79.989061532775651</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Winter'!M2*Scenarios!$B$6</f>
-        <v>58.03598223224175</v>
+        <v>70.607982412113145</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Winter'!N2*Scenarios!$B$6</f>
-        <v>56.49383324974194</v>
+        <v>68.731766587980644</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Winter'!O2*Scenarios!$B$6</f>
-        <v>55.342272219141648</v>
+        <v>67.330749531532362</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Winter'!P2*Scenarios!$B$6</f>
-        <v>55.894482771827164</v>
+        <v>68.002582272051413</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Winter'!Q2*Scenarios!$B$6</f>
-        <v>57.241337778377215</v>
+        <v>69.641198712341804</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Winter'!R2*Scenarios!$B$6</f>
-        <v>65.746727144740788</v>
+        <v>79.989061532775651</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Winter'!S2*Scenarios!$B$6</f>
-        <v>79.801159138090597</v>
+        <v>97.088024087205937</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Winter'!T2*Scenarios!$B$6</f>
-        <v>86.825007997249116</v>
+        <v>105.63340882332035</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Winter'!U2*Scenarios!$B$6</f>
-        <v>89.101192958318705</v>
+        <v>108.40267060741112</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Winter'!V2*Scenarios!$B$6</f>
-        <v>79.417305461223833</v>
+        <v>96.621018401723177</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Winter'!W2*Scenarios!$B$6</f>
-        <v>72.952401429783578</v>
+        <v>88.755659488329272</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Winter'!X2*Scenarios!$B$6</f>
-        <v>67.342750327502614</v>
+        <v>81.930822014519777</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Winter'!Y2*Scenarios!$B$6</f>
-        <v>62.80384895542894</v>
+        <v>76.408684610741147</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4283,99 +4286,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Winter'!B3*Scenarios!$B$6</f>
-        <v>59.921579241411827</v>
+        <v>72.902045428519699</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Winter'!C3*Scenarios!$B$6</f>
-        <v>58.217807658126006</v>
+        <v>70.829195631552352</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Winter'!D3*Scenarios!$B$6</f>
-        <v>57.234603503344466</v>
+        <v>69.63300563014036</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Winter'!E3*Scenarios!$B$6</f>
-        <v>55.894482771827164</v>
+        <v>68.002582272051413</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Winter'!F3*Scenarios!$B$6</f>
-        <v>55.98876262228567</v>
+        <v>68.117285422871745</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Winter'!G3*Scenarios!$B$6</f>
-        <v>57.241337778377215</v>
+        <v>69.641198712341804</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Winter'!H3*Scenarios!$B$6</f>
-        <v>59.935047791477324</v>
+        <v>72.918431592922602</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Winter'!I3*Scenarios!$B$6</f>
-        <v>67.342750327502614</v>
+        <v>81.930822014519777</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Winter'!J3*Scenarios!$B$6</f>
-        <v>70.554999518124475</v>
+        <v>85.838922224612361</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Winter'!K3*Scenarios!$B$6</f>
-        <v>70.709887843877738</v>
+        <v>86.027363115245763</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Winter'!L3*Scenarios!$B$6</f>
-        <v>67.342750327502614</v>
+        <v>81.930822014519777</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Winter'!M3*Scenarios!$B$6</f>
-        <v>63.692773259751966</v>
+        <v>77.490171461332807</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Winter'!N3*Scenarios!$B$6</f>
-        <v>61.955330301302403</v>
+        <v>75.376356253358196</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Winter'!O3*Scenarios!$B$6</f>
-        <v>61.807176250581897</v>
+        <v>75.196108444926253</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Winter'!P3*Scenarios!$B$6</f>
-        <v>60.675818045079851</v>
+        <v>73.819670635082318</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Winter'!Q3*Scenarios!$B$6</f>
-        <v>61.962064576335152</v>
+        <v>75.384549335559655</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Winter'!R3*Scenarios!$B$6</f>
-        <v>68.002709280712139</v>
+        <v>82.733744070262077</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Winter'!S3*Scenarios!$B$6</f>
-        <v>72.124085600755294</v>
+        <v>87.747910377550681</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Winter'!T3*Scenarios!$B$6</f>
-        <v>84.851865412653282</v>
+        <v>103.23283573829492</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Winter'!U3*Scenarios!$B$6</f>
-        <v>80.454383816267367</v>
+        <v>97.882753060746779</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Winter'!V3*Scenarios!$B$6</f>
-        <v>74.077025360252875</v>
+        <v>90.123904215971748</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Winter'!W3*Scenarios!$B$6</f>
-        <v>68.864696484904172</v>
+        <v>83.782458592047931</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Winter'!X3*Scenarios!$B$6</f>
-        <v>65.995895320952556</v>
+        <v>80.292205574229385</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Winter'!Y3*Scenarios!$B$6</f>
-        <v>64.305592287732239</v>
+        <v>78.235741941664926</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4384,99 +4387,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Winter'!B4*Scenarios!$B$6</f>
-        <v>62.177561377383157</v>
+        <v>75.646727966006111</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Winter'!C4*Scenarios!$B$6</f>
-        <v>60.689286595145354</v>
+        <v>73.83605679948522</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Winter'!D4*Scenarios!$B$6</f>
-        <v>58.594927059960021</v>
+        <v>71.288008234833669</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Winter'!E4*Scenarios!$B$6</f>
-        <v>57.780079780997234</v>
+        <v>70.296645288457967</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Winter'!F4*Scenarios!$B$6</f>
-        <v>57.241337778377215</v>
+        <v>69.641198712341804</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Winter'!G4*Scenarios!$B$6</f>
-        <v>58.116793532634752</v>
+        <v>70.706299398530561</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Winter'!H4*Scenarios!$B$6</f>
-        <v>63.975612811127476</v>
+        <v>77.834280913793791</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Winter'!I4*Scenarios!$B$6</f>
-        <v>69.996054690406211</v>
+        <v>85.158896401891852</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Winter'!J4*Scenarios!$B$6</f>
-        <v>81.754098897588179</v>
+        <v>99.464017925627019</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Winter'!K4*Scenarios!$B$6</f>
-        <v>81.754098897588179</v>
+        <v>99.464017925627019</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Winter'!L4*Scenarios!$B$6</f>
-        <v>70.965790295122247</v>
+        <v>86.338700238900941</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Winter'!M4*Scenarios!$B$6</f>
-        <v>69.342830012229442</v>
+        <v>84.36416742835101</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Winter'!N4*Scenarios!$B$6</f>
-        <v>67.336016052469859</v>
+        <v>81.922628932318318</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Winter'!O4*Scenarios!$B$6</f>
-        <v>66.332609072590074</v>
+        <v>80.701859684301979</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Winter'!P4*Scenarios!$B$6</f>
-        <v>63.81399021034148</v>
+        <v>77.637646940958945</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Winter'!Q4*Scenarios!$B$6</f>
-        <v>63.793787385243228</v>
+        <v>77.613067694354584</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Winter'!R4*Scenarios!$B$6</f>
-        <v>66.918491000439346</v>
+        <v>81.414657835828308</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Winter'!S4*Scenarios!$B$6</f>
-        <v>69.161004586345186</v>
+        <v>84.142954208911817</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Winter'!T4*Scenarios!$B$6</f>
-        <v>74.945746839477664</v>
+        <v>91.180811819959061</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Winter'!U4*Scenarios!$B$6</f>
-        <v>81.754098897588179</v>
+        <v>99.464017925627019</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Winter'!V4*Scenarios!$B$6</f>
-        <v>80.811300393003137</v>
+        <v>98.316986417423735</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Winter'!W4*Scenarios!$B$6</f>
-        <v>72.534876377753051</v>
+        <v>88.247688391839247</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Winter'!X4*Scenarios!$B$6</f>
-        <v>68.231674631825641</v>
+        <v>83.012308865111436</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Winter'!Y4*Scenarios!$B$6</f>
-        <v>62.413261003529421</v>
+        <v>75.933485843056928</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -4630,99 +4633,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Spring'!B2*Scenarios!$B$6</f>
-        <v>29.630810144101147</v>
+        <v>36.049561686388699</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Spring'!C2*Scenarios!$B$6</f>
-        <v>31.395190202681714</v>
+        <v>38.196149223169115</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Spring'!D2*Scenarios!$B$6</f>
-        <v>32.432268557725251</v>
+        <v>39.457883882192725</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Spring'!E2*Scenarios!$B$6</f>
-        <v>32.593891158511262</v>
+        <v>39.654517855027571</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Spring'!F2*Scenarios!$B$6</f>
-        <v>34.008088915388818</v>
+        <v>41.37506511733249</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Spring'!G2*Scenarios!$B$6</f>
-        <v>37.705205908368711</v>
+        <v>45.873067245929626</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Spring'!H2*Scenarios!$B$6</f>
-        <v>39.611005742637033</v>
+        <v>48.191709508940534</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Spring'!I2*Scenarios!$B$6</f>
-        <v>33.657906613685803</v>
+        <v>40.949024842856986</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Spring'!J2*Scenarios!$B$6</f>
-        <v>22.761849610695879</v>
+        <v>27.692617840907683</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Spring'!K2*Scenarios!$B$6</f>
-        <v>9.0912712942128522</v>
+        <v>11.06066097196017</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Spring'!L2*Scenarios!$B$6</f>
-        <v>7.6097307870077957</v>
+        <v>9.2581828876407357</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Spring'!M2*Scenarios!$B$6</f>
-        <v>6.3638899059489962</v>
+        <v>7.7424626803721184</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Spring'!N2*Scenarios!$B$6</f>
-        <v>3.0304237647376175</v>
+        <v>3.6868869906533899</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Spring'!O2*Scenarios!$B$6</f>
-        <v>2.1078280852508318</v>
+        <v>2.5644347290544691</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Spring'!P2*Scenarios!$B$6</f>
-        <v>0.36365085176851414</v>
+        <v>0.44242643887840682</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Spring'!Q2*Scenarios!$B$6</f>
-        <v>2.1886393856438349</v>
+        <v>2.6627517154718929</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Spring'!R2*Scenarios!$B$6</f>
-        <v>3.3671375163751307</v>
+        <v>4.0965411007259886</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Spring'!S2*Scenarios!$B$6</f>
-        <v>10.215895224682146</v>
+        <v>12.42890569960265</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Spring'!T2*Scenarios!$B$6</f>
-        <v>22.761849610695879</v>
+        <v>27.692617840907683</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Spring'!U2*Scenarios!$B$6</f>
-        <v>33.07875896086928</v>
+        <v>40.244419773532115</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Spring'!V2*Scenarios!$B$6</f>
-        <v>39.940985219241796</v>
+        <v>48.593170536811684</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Spring'!W2*Scenarios!$B$6</f>
-        <v>38.809627013739757</v>
+        <v>47.216732726967749</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Spring'!X2*Scenarios!$B$6</f>
-        <v>32.997947660476278</v>
+        <v>40.146102787114692</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Spring'!Y2*Scenarios!$B$6</f>
-        <v>48.776354062210146</v>
+        <v>59.34249438511668</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -4731,99 +4734,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Spring'!B3*Scenarios!$B$6</f>
-        <v>47.476638980889341</v>
+        <v>57.761229520236441</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Spring'!C3*Scenarios!$B$6</f>
-        <v>46.554043301402551</v>
+        <v>56.638777258637518</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Spring'!D3*Scenarios!$B$6</f>
-        <v>46.466497725976801</v>
+        <v>56.532267190018644</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Spring'!E3*Scenarios!$B$6</f>
-        <v>45.799804497734527</v>
+        <v>55.721152052074906</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Spring'!F3*Scenarios!$B$6</f>
-        <v>46.358749325452798</v>
+        <v>56.401177874795415</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Spring'!G3*Scenarios!$B$6</f>
-        <v>45.11964271942675</v>
+        <v>54.893650749728252</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Spring'!H3*Scenarios!$B$6</f>
-        <v>45.739196022439771</v>
+        <v>55.647414312261837</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Spring'!I3*Scenarios!$B$6</f>
-        <v>49.072662163651152</v>
+        <v>59.702990001980567</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Spring'!J3*Scenarios!$B$6</f>
-        <v>28.081926886568588</v>
+        <v>34.165152780054747</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Spring'!K3*Scenarios!$B$6</f>
-        <v>20.202825098250784</v>
+        <v>24.579246604355934</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Spring'!L3*Scenarios!$B$6</f>
-        <v>12.673905611635991</v>
+        <v>15.419380703132623</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Spring'!M3*Scenarios!$B$6</f>
-        <v>13.758123891908783</v>
+        <v>16.73846693756639</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Spring'!N3*Scenarios!$B$6</f>
-        <v>9.8993842981428823</v>
+        <v>12.043830836134406</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Spring'!O3*Scenarios!$B$6</f>
-        <v>6.5053096816367519</v>
+        <v>7.9145174066026103</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Spring'!P3*Scenarios!$B$6</f>
-        <v>5.5288398018879645</v>
+        <v>6.7265204873920741</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Spring'!Q3*Scenarios!$B$6</f>
-        <v>5.0103006243661943</v>
+        <v>6.095653157880272</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Spring'!R3*Scenarios!$B$6</f>
-        <v>9.8993842981428823</v>
+        <v>12.043830836134406</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Spring'!S3*Scenarios!$B$6</f>
-        <v>13.091430663666507</v>
+        <v>15.927351799622645</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Spring'!T3*Scenarios!$B$6</f>
-        <v>23.428542838938156</v>
+        <v>28.503732978851431</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Spring'!U3*Scenarios!$B$6</f>
-        <v>42.244107280442385</v>
+        <v>51.395204649708255</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Spring'!V3*Scenarios!$B$6</f>
-        <v>45.799804497734527</v>
+        <v>55.721152052074906</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Spring'!W3*Scenarios!$B$6</f>
-        <v>44.964754393673488</v>
+        <v>54.70520985909485</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Spring'!X3*Scenarios!$B$6</f>
-        <v>42.479806906588642</v>
+        <v>51.681962526759072</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Spring'!Y3*Scenarios!$B$6</f>
-        <v>48.486780235801881</v>
+        <v>58.990191850454238</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -4832,99 +4835,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Spring'!B4*Scenarios!$B$6</f>
-        <v>46.399154975649303</v>
+        <v>56.45033636800413</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Spring'!C4*Scenarios!$B$6</f>
-        <v>44.378872465824223</v>
+        <v>53.992411707568536</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Spring'!D4*Scenarios!$B$6</f>
-        <v>44.661712017199726</v>
+        <v>54.336521160029513</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Spring'!E4*Scenarios!$B$6</f>
-        <v>43.611165112090696</v>
+        <v>53.058400336603015</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Spring'!F4*Scenarios!$B$6</f>
-        <v>45.71225892230877</v>
+        <v>55.614641983456018</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Spring'!G4*Scenarios!$B$6</f>
-        <v>42.358589955999143</v>
+        <v>51.534487047132941</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Spring'!H4*Scenarios!$B$6</f>
-        <v>44.735789042559986</v>
+        <v>54.426645064245491</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Spring'!I4*Scenarios!$B$6</f>
-        <v>39.44938314185103</v>
+        <v>47.995075536105681</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Spring'!J4*Scenarios!$B$6</f>
-        <v>26.027973001579756</v>
+        <v>31.666262708611892</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Spring'!K4*Scenarios!$B$6</f>
-        <v>16.276742754157382</v>
+        <v>19.802679680909431</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Spring'!L4*Scenarios!$B$6</f>
-        <v>14.815405072050574</v>
+        <v>18.02478084319435</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Spring'!M4*Scenarios!$B$6</f>
-        <v>14.653782471264568</v>
+        <v>17.828146870359504</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Spring'!N4*Scenarios!$B$6</f>
-        <v>7.8925703383833063</v>
+        <v>9.6022923401017177</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Spring'!O4*Scenarios!$B$6</f>
-        <v>6.8891633585035175</v>
+        <v>8.3815230920853736</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Spring'!P4*Scenarios!$B$6</f>
-        <v>2.1886393856438349</v>
+        <v>2.6627517154718929</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Spring'!Q4*Scenarios!$B$6</f>
-        <v>2.1886393856438349</v>
+        <v>2.6627517154718929</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Spring'!R4*Scenarios!$B$6</f>
-        <v>5.703930952739471</v>
+        <v>6.9395406246298252</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Spring'!S4*Scenarios!$B$6</f>
-        <v>16.903030332203155</v>
+        <v>20.564636325644464</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Spring'!T4*Scenarios!$B$6</f>
-        <v>27.745213134931078</v>
+        <v>33.755498669982153</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Spring'!U4*Scenarios!$B$6</f>
-        <v>38.546990287462492</v>
+        <v>46.897202521111119</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Spring'!V4*Scenarios!$B$6</f>
-        <v>50.257894569415193</v>
+        <v>61.144972469436105</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Spring'!W4*Scenarios!$B$6</f>
-        <v>45.71225892230877</v>
+        <v>55.614641983456018</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Spring'!X4*Scenarios!$B$6</f>
-        <v>47.813352732526852</v>
+        <v>58.170883630309042</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Spring'!Y4*Scenarios!$B$6</f>
-        <v>48.486780235801881</v>
+        <v>58.990191850454238</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5078,99 +5081,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Summer'!B2*Scenarios!$B$6</f>
-        <v>76.191587720536447</v>
+        <v>92.696532027227676</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Summer'!C2*Scenarios!$B$6</f>
-        <v>75.679782818047428</v>
+        <v>92.073857779917319</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Summer'!D2*Scenarios!$B$6</f>
-        <v>75.854873968898943</v>
+        <v>92.286877917155081</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Summer'!E2*Scenarios!$B$6</f>
-        <v>75.814468318702438</v>
+        <v>92.237719423946359</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Summer'!F2*Scenarios!$B$6</f>
-        <v>76.016496569684946</v>
+        <v>92.483511889989927</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Summer'!G2*Scenarios!$B$6</f>
-        <v>78.683269482654055</v>
+        <v>95.727972441764905</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Summer'!H2*Scenarios!$B$6</f>
-        <v>81.296168195361147</v>
+        <v>98.906888335928272</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Summer'!I2*Scenarios!$B$6</f>
-        <v>78.683269482654055</v>
+        <v>95.727972441764905</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Summer'!J2*Scenarios!$B$6</f>
-        <v>75.976090919488442</v>
+        <v>92.434353396781205</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Summer'!K2*Scenarios!$B$6</f>
-        <v>75.370006166540918</v>
+        <v>91.69697599865053</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Summer'!L2*Scenarios!$B$6</f>
-        <v>65.995895320952556</v>
+        <v>80.292205574229385</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Summer'!M2*Scenarios!$B$6</f>
-        <v>62.615289254511929</v>
+        <v>76.179278309100496</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Summer'!N2*Scenarios!$B$6</f>
-        <v>62.487338028889674</v>
+        <v>76.0236097472729</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Summer'!O2*Scenarios!$B$6</f>
-        <v>59.928313516444568</v>
+        <v>72.910238510721143</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Summer'!P2*Scenarios!$B$6</f>
-        <v>55.894482771827164</v>
+        <v>68.002582272051413</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Summer'!Q2*Scenarios!$B$6</f>
-        <v>55.086369767897132</v>
+        <v>67.019412407877169</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Summer'!R2*Scenarios!$B$6</f>
-        <v>55.086369767897132</v>
+        <v>67.019412407877169</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Summer'!S2*Scenarios!$B$6</f>
-        <v>63.551353484064215</v>
+        <v>77.318116735102322</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Summer'!T2*Scenarios!$B$6</f>
-        <v>73.538283357632849</v>
+        <v>89.4684576398556</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Summer'!U2*Scenarios!$B$6</f>
-        <v>79.195074385143059</v>
+        <v>96.350646689075248</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Summer'!V2*Scenarios!$B$6</f>
-        <v>89.336892584464962</v>
+        <v>108.68942848446193</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Summer'!W2*Scenarios!$B$6</f>
-        <v>84.515151661015778</v>
+        <v>102.82318162822231</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Summer'!X2*Scenarios!$B$6</f>
-        <v>78.885297733636563</v>
+        <v>95.973764907808473</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Summer'!Y2*Scenarios!$B$6</f>
-        <v>76.662986972828975</v>
+        <v>93.270047781329311</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5179,99 +5182,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Summer'!B3*Scenarios!$B$6</f>
-        <v>72.204896901148302</v>
+        <v>87.846227363968111</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Summer'!C3*Scenarios!$B$6</f>
-        <v>72.198162626115547</v>
+        <v>87.838034281766653</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Summer'!D3*Scenarios!$B$6</f>
-        <v>72.198162626115547</v>
+        <v>87.838034281766653</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Summer'!E3*Scenarios!$B$6</f>
-        <v>63.975612811127476</v>
+        <v>77.834280913793791</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Summer'!F3*Scenarios!$B$6</f>
-        <v>68.985913435493671</v>
+        <v>83.929934071674055</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Summer'!G3*Scenarios!$B$6</f>
-        <v>70.709887843877738</v>
+        <v>86.027363115245763</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Summer'!H3*Scenarios!$B$6</f>
-        <v>77.511505626955497</v>
+        <v>94.302376138712262</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Summer'!I3*Scenarios!$B$6</f>
-        <v>68.985913435493671</v>
+        <v>83.929934071674055</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Summer'!J3*Scenarios!$B$6</f>
-        <v>59.241417463104042</v>
+        <v>72.074544126173052</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Summer'!K3*Scenarios!$B$6</f>
-        <v>53.46340948500432</v>
+        <v>65.044879597327252</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Summer'!L3*Scenarios!$B$6</f>
-        <v>53.604829260692071</v>
+        <v>65.216934323557737</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Summer'!M3*Scenarios!$B$6</f>
-        <v>54.614970515604611</v>
+        <v>66.445896653775534</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Summer'!N3*Scenarios!$B$6</f>
-        <v>55.221055268552142</v>
+        <v>67.183274051906224</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Summer'!O3*Scenarios!$B$6</f>
-        <v>55.551034745156898</v>
+        <v>67.58473507977736</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Summer'!P3*Scenarios!$B$6</f>
-        <v>53.604829260692071</v>
+        <v>65.216934323557737</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Summer'!Q3*Scenarios!$B$6</f>
-        <v>53.604829260692071</v>
+        <v>65.216934323557737</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Summer'!R3*Scenarios!$B$6</f>
-        <v>55.221055268552142</v>
+        <v>67.183274051906224</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Summer'!S3*Scenarios!$B$6</f>
-        <v>56.722798600855448</v>
+        <v>69.010331382830017</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Summer'!T3*Scenarios!$B$6</f>
-        <v>59.935047791477324</v>
+        <v>72.918431592922602</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Summer'!U3*Scenarios!$B$6</f>
-        <v>78.252275880558031</v>
+        <v>95.203615180871978</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Summer'!V3*Scenarios!$B$6</f>
-        <v>86.804805172150864</v>
+        <v>105.608829576716</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Summer'!W3*Scenarios!$B$6</f>
-        <v>82.440994950928697</v>
+        <v>100.29971231017511</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Summer'!X3*Scenarios!$B$6</f>
-        <v>77.834750828527518</v>
+        <v>94.695644084381954</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Summer'!Y3*Scenarios!$B$6</f>
-        <v>72.561813477884058</v>
+        <v>88.280460720645067</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5280,99 +5283,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Summer'!B4*Scenarios!$B$6</f>
-        <v>73.161163955798841</v>
+        <v>89.009645036574284</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Summer'!C4*Scenarios!$B$6</f>
-        <v>70.460719667665984</v>
+        <v>85.724219073792042</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Summer'!D4*Scenarios!$B$6</f>
-        <v>70.878244719696497</v>
+        <v>86.232190170282067</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Summer'!E4*Scenarios!$B$6</f>
-        <v>63.053017131640694</v>
+        <v>76.711828652194868</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Summer'!F4*Scenarios!$B$6</f>
-        <v>63.551353484064215</v>
+        <v>77.318116735102322</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Summer'!G4*Scenarios!$B$6</f>
-        <v>66.972365200701347</v>
+        <v>81.480202493439918</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Summer'!H4*Scenarios!$B$6</f>
-        <v>76.299336121060449</v>
+        <v>92.827621342450911</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Summer'!I4*Scenarios!$B$6</f>
-        <v>73.989479784827125</v>
+        <v>90.017394147352888</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Summer'!J4*Scenarios!$B$6</f>
-        <v>60.608475294752346</v>
+        <v>73.737739813067805</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Summer'!K4*Scenarios!$B$6</f>
-        <v>50.507062745626961</v>
+        <v>61.448116510889832</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Summer'!L4*Scenarios!$B$6</f>
-        <v>43.69197641248369</v>
+        <v>53.15671732302043</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Summer'!M4*Scenarios!$B$6</f>
-        <v>43.46974533640293</v>
+        <v>52.886345610372516</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Summer'!N4*Scenarios!$B$6</f>
-        <v>43.766053437843944</v>
+        <v>53.246841227236402</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Summer'!O4*Scenarios!$B$6</f>
-        <v>43.69197641248369</v>
+        <v>53.15671732302043</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Summer'!P4*Scenarios!$B$6</f>
-        <v>42.675100882538402</v>
+        <v>51.919561910601182</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Summer'!Q4*Scenarios!$B$6</f>
-        <v>40.405650196501568</v>
+        <v>49.158493208711867</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Summer'!R4*Scenarios!$B$6</f>
-        <v>43.038751734306913</v>
+        <v>52.361988349479589</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Summer'!S4*Scenarios!$B$6</f>
-        <v>47.133190954219074</v>
+        <v>57.343382327962388</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Summer'!T4*Scenarios!$B$6</f>
-        <v>57.598254355112985</v>
+        <v>70.07543206901876</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Summer'!U4*Scenarios!$B$6</f>
-        <v>73.417066407043336</v>
+        <v>89.320982160229462</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Summer'!V4*Scenarios!$B$6</f>
-        <v>76.945826524204492</v>
+        <v>93.614157233790309</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Summer'!W4*Scenarios!$B$6</f>
-        <v>73.093821205471343</v>
+        <v>88.927714214559771</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Summer'!X4*Scenarios!$B$6</f>
-        <v>63.423402258441961</v>
+        <v>77.162448173274726</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Summer'!Y4*Scenarios!$B$6</f>
-        <v>49.988523568105187</v>
+        <v>60.817249181378031</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
@@ -5526,99 +5529,99 @@
       </c>
       <c r="B2" s="2">
         <f>'[1]Flexibility, Autumn'!B2*Scenarios!$B$6</f>
-        <v>61.982267401433404</v>
+        <v>75.409128582164001</v>
       </c>
       <c r="C2" s="2">
         <f>'[1]Flexibility, Autumn'!C2*Scenarios!$B$6</f>
-        <v>60.581538194621345</v>
+        <v>73.704967484261985</v>
       </c>
       <c r="D2" s="2">
         <f>'[1]Flexibility, Autumn'!D2*Scenarios!$B$6</f>
-        <v>60.655615219981598</v>
+        <v>73.795091388477957</v>
       </c>
       <c r="E2" s="2">
         <f>'[1]Flexibility, Autumn'!E2*Scenarios!$B$6</f>
-        <v>56.44669332451268</v>
+        <v>68.674415012570478</v>
       </c>
       <c r="F2" s="2">
         <f>'[1]Flexibility, Autumn'!F2*Scenarios!$B$6</f>
-        <v>57.483771679556227</v>
+        <v>69.93614967159408</v>
       </c>
       <c r="G2" s="2">
         <f>'[1]Flexibility, Autumn'!G2*Scenarios!$B$6</f>
-        <v>60.534398269392099</v>
+        <v>73.647615908851833</v>
       </c>
       <c r="H2" s="2">
         <f>'[1]Flexibility, Autumn'!H2*Scenarios!$B$6</f>
-        <v>70.130740191061221</v>
+        <v>85.322758045920892</v>
       </c>
       <c r="I2" s="2">
         <f>'[1]Flexibility, Autumn'!I2*Scenarios!$B$6</f>
-        <v>81.58574202176942</v>
+        <v>99.259190870590714</v>
       </c>
       <c r="J2" s="2">
         <f>'[1]Flexibility, Autumn'!J2*Scenarios!$B$6</f>
-        <v>81.3163710204594</v>
+        <v>98.931467582532633</v>
       </c>
       <c r="K2" s="2">
         <f>'[1]Flexibility, Autumn'!K2*Scenarios!$B$6</f>
-        <v>79.491382486584087</v>
+        <v>96.711142305939148</v>
       </c>
       <c r="L2" s="2">
         <f>'[1]Flexibility, Autumn'!L2*Scenarios!$B$6</f>
-        <v>67.261939027109605</v>
+        <v>81.832505028102347</v>
       </c>
       <c r="M2" s="2">
         <f>'[1]Flexibility, Autumn'!M2*Scenarios!$B$6</f>
-        <v>62.84425460562543</v>
+        <v>76.457843103949855</v>
       </c>
       <c r="N2" s="2">
         <f>'[1]Flexibility, Autumn'!N2*Scenarios!$B$6</f>
-        <v>61.544539524304632</v>
+        <v>74.87657823906963</v>
       </c>
       <c r="O2" s="2">
         <f>'[1]Flexibility, Autumn'!O2*Scenarios!$B$6</f>
-        <v>60.675818045079851</v>
+        <v>73.819670635082318</v>
       </c>
       <c r="P2" s="2">
         <f>'[1]Flexibility, Autumn'!P2*Scenarios!$B$6</f>
-        <v>62.224701302612416</v>
+        <v>75.704079541416277</v>
       </c>
       <c r="Q2" s="2">
         <f>'[1]Flexibility, Autumn'!Q2*Scenarios!$B$6</f>
-        <v>73.834591459073863</v>
+        <v>89.828953256719487</v>
       </c>
       <c r="R2" s="2">
         <f>'[1]Flexibility, Autumn'!R2*Scenarios!$B$6</f>
-        <v>81.444322246081654</v>
+        <v>99.087136144360215</v>
       </c>
       <c r="S2" s="2">
         <f>'[1]Flexibility, Autumn'!S2*Scenarios!$B$6</f>
-        <v>91.07433554291454</v>
+        <v>110.80324369243655</v>
       </c>
       <c r="T2" s="2">
         <f>'[1]Flexibility, Autumn'!T2*Scenarios!$B$6</f>
-        <v>108.11205137577268</v>
+        <v>131.53174166211005</v>
       </c>
       <c r="U2" s="2">
         <f>'[1]Flexibility, Autumn'!U2*Scenarios!$B$6</f>
-        <v>102.03773529623196</v>
+        <v>124.14158151640038</v>
       </c>
       <c r="V2" s="2">
         <f>'[1]Flexibility, Autumn'!V2*Scenarios!$B$6</f>
-        <v>82.831582902828217</v>
+        <v>100.77491107785933</v>
       </c>
       <c r="W2" s="2">
         <f>'[1]Flexibility, Autumn'!W2*Scenarios!$B$6</f>
-        <v>79.65300508737009</v>
+        <v>96.907776278773994</v>
       </c>
       <c r="X2" s="2">
         <f>'[1]Flexibility, Autumn'!X2*Scenarios!$B$6</f>
-        <v>79.65300508737009</v>
+        <v>96.907776278773994</v>
       </c>
       <c r="Y2" s="2">
         <f>'[1]Flexibility, Autumn'!Y2*Scenarios!$B$6</f>
-        <v>73.834591459073863</v>
+        <v>89.828953256719487</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
@@ -5627,99 +5630,99 @@
       </c>
       <c r="B3" s="2">
         <f>'[1]Flexibility, Autumn'!B3*Scenarios!$B$6</f>
-        <v>53.874200262002091</v>
+        <v>65.544657611615818</v>
       </c>
       <c r="C3" s="2">
         <f>'[1]Flexibility, Autumn'!C3*Scenarios!$B$6</f>
-        <v>51.71249797648926</v>
+        <v>62.914678224949739</v>
       </c>
       <c r="D3" s="2">
         <f>'[1]Flexibility, Autumn'!D3*Scenarios!$B$6</f>
-        <v>50.507062745626961</v>
+        <v>61.448116510889832</v>
       </c>
       <c r="E3" s="2">
         <f>'[1]Flexibility, Autumn'!E3*Scenarios!$B$6</f>
-        <v>48.884102462734148</v>
+        <v>59.473583700339908</v>
       </c>
       <c r="F3" s="2">
         <f>'[1]Flexibility, Autumn'!F3*Scenarios!$B$6</f>
-        <v>47.806618457494096</v>
+        <v>58.162690548107584</v>
       </c>
       <c r="G3" s="2">
         <f>'[1]Flexibility, Autumn'!G3*Scenarios!$B$6</f>
-        <v>51.853917752177011</v>
+        <v>63.086732951180231</v>
       </c>
       <c r="H3" s="2">
         <f>'[1]Flexibility, Autumn'!H3*Scenarios!$B$6</f>
-        <v>59.524257014479559</v>
+        <v>72.418653578634036</v>
       </c>
       <c r="I3" s="2">
         <f>'[1]Flexibility, Autumn'!I3*Scenarios!$B$6</f>
-        <v>72.299176751606808</v>
+        <v>87.96093051478843</v>
       </c>
       <c r="J3" s="2">
         <f>'[1]Flexibility, Autumn'!J3*Scenarios!$B$6</f>
-        <v>81.875315848177678</v>
+        <v>99.611493405253142</v>
       </c>
       <c r="K3" s="2">
         <f>'[1]Flexibility, Autumn'!K3*Scenarios!$B$6</f>
-        <v>69.228347336672684</v>
+        <v>84.22488503092633</v>
       </c>
       <c r="L3" s="2">
         <f>'[1]Flexibility, Autumn'!L3*Scenarios!$B$6</f>
-        <v>62.763443305232435</v>
+        <v>76.35952611753244</v>
       </c>
       <c r="M3" s="2">
         <f>'[1]Flexibility, Autumn'!M3*Scenarios!$B$6</f>
-        <v>57.268274878508223</v>
+        <v>69.673971041147624</v>
       </c>
       <c r="N3" s="2">
         <f>'[1]Flexibility, Autumn'!N3*Scenarios!$B$6</f>
-        <v>59.874439316182567</v>
+        <v>72.844693853109533</v>
       </c>
       <c r="O3" s="2">
         <f>'[1]Flexibility, Autumn'!O3*Scenarios!$B$6</f>
-        <v>57.450100304392478</v>
+        <v>69.895184260586831</v>
       </c>
       <c r="P3" s="2">
         <f>'[1]Flexibility, Autumn'!P3*Scenarios!$B$6</f>
-        <v>57.584785805047488</v>
+        <v>70.059045904615871</v>
       </c>
       <c r="Q3" s="2">
         <f>'[1]Flexibility, Autumn'!Q3*Scenarios!$B$6</f>
-        <v>64.312326562764994</v>
+        <v>78.243935023866385</v>
       </c>
       <c r="R3" s="2">
         <f>'[1]Flexibility, Autumn'!R3*Scenarios!$B$6</f>
-        <v>76.097307870077955</v>
+        <v>92.581828876407343</v>
       </c>
       <c r="S3" s="2">
         <f>'[1]Flexibility, Autumn'!S3*Scenarios!$B$6</f>
-        <v>87.545575425753398</v>
+        <v>106.51006861887571</v>
       </c>
       <c r="T3" s="2">
         <f>'[1]Flexibility, Autumn'!T3*Scenarios!$B$6</f>
-        <v>90.333565289311991</v>
+        <v>109.90200465027682</v>
       </c>
       <c r="U3" s="2">
         <f>'[1]Flexibility, Autumn'!U3*Scenarios!$B$6</f>
-        <v>90.919447217161263</v>
+        <v>110.61480280180315</v>
       </c>
       <c r="V3" s="2">
         <f>'[1]Flexibility, Autumn'!V3*Scenarios!$B$6</f>
-        <v>100.15213828706187</v>
+        <v>121.84751849999381</v>
       </c>
       <c r="W3" s="2">
         <f>'[1]Flexibility, Autumn'!W3*Scenarios!$B$6</f>
-        <v>90.468250789967001</v>
+        <v>110.06586629430588</v>
       </c>
       <c r="X3" s="2">
         <f>'[1]Flexibility, Autumn'!X3*Scenarios!$B$6</f>
-        <v>77.578848377283009</v>
+        <v>94.384306960726789</v>
       </c>
       <c r="Y3" s="2">
         <f>'[1]Flexibility, Autumn'!Y3*Scenarios!$B$6</f>
-        <v>68.689605334052658</v>
+        <v>83.569438454810168</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
@@ -5728,99 +5731,99 @@
       </c>
       <c r="B4" s="2">
         <f>'[1]Flexibility, Autumn'!B4*Scenarios!$B$6</f>
-        <v>58.238010483224258</v>
+        <v>70.853774878156713</v>
       </c>
       <c r="C4" s="2">
         <f>'[1]Flexibility, Autumn'!C4*Scenarios!$B$6</f>
-        <v>55.025761292602375</v>
+        <v>66.9456746680641</v>
       </c>
       <c r="D4" s="2">
         <f>'[1]Flexibility, Autumn'!D4*Scenarios!$B$6</f>
-        <v>50.507062745626961</v>
+        <v>61.448116510889832</v>
       </c>
       <c r="E4" s="2">
         <f>'[1]Flexibility, Autumn'!E4*Scenarios!$B$6</f>
-        <v>47.611324481544344</v>
+        <v>57.925091164265488</v>
       </c>
       <c r="F4" s="2">
         <f>'[1]Flexibility, Autumn'!F4*Scenarios!$B$6</f>
-        <v>47.597855931478847</v>
+        <v>57.908704999862586</v>
       </c>
       <c r="G4" s="2">
         <f>'[1]Flexibility, Autumn'!G4*Scenarios!$B$6</f>
-        <v>48.257814884688365</v>
+        <v>58.711627055604872</v>
       </c>
       <c r="H4" s="2">
         <f>'[1]Flexibility, Autumn'!H4*Scenarios!$B$6</f>
-        <v>49.725886841827929</v>
+        <v>60.497718975521408</v>
       </c>
       <c r="I4" s="2">
         <f>'[1]Flexibility, Autumn'!I4*Scenarios!$B$6</f>
-        <v>52.527345255452033</v>
+        <v>63.906041171325427</v>
       </c>
       <c r="J4" s="2">
         <f>'[1]Flexibility, Autumn'!J4*Scenarios!$B$6</f>
-        <v>49.220816214371659</v>
+        <v>59.88323781041251</v>
       </c>
       <c r="K4" s="2">
         <f>'[1]Flexibility, Autumn'!K4*Scenarios!$B$6</f>
-        <v>47.13992522925183</v>
+        <v>57.351575410163846</v>
       </c>
       <c r="L4" s="2">
         <f>'[1]Flexibility, Autumn'!L4*Scenarios!$B$6</f>
-        <v>44.924348743476983</v>
+        <v>54.656051365886135</v>
       </c>
       <c r="M4" s="2">
         <f>'[1]Flexibility, Autumn'!M4*Scenarios!$B$6</f>
-        <v>32.189834656546246</v>
+        <v>39.162932922940449</v>
       </c>
       <c r="N4" s="2">
         <f>'[1]Flexibility, Autumn'!N4*Scenarios!$B$6</f>
-        <v>33.664640888718559</v>
+        <v>40.957217925058437</v>
       </c>
       <c r="O4" s="2">
         <f>'[1]Flexibility, Autumn'!O4*Scenarios!$B$6</f>
-        <v>33.832997764537311</v>
+        <v>41.162044980094741</v>
       </c>
       <c r="P4" s="2">
         <f>'[1]Flexibility, Autumn'!P4*Scenarios!$B$6</f>
-        <v>40.405650196501568</v>
+        <v>49.158493208711867</v>
       </c>
       <c r="Q4" s="2">
         <f>'[1]Flexibility, Autumn'!Q4*Scenarios!$B$6</f>
-        <v>47.429499055660095</v>
+        <v>57.703877944826282</v>
       </c>
       <c r="R4" s="2">
         <f>'[1]Flexibility, Autumn'!R4*Scenarios!$B$6</f>
-        <v>56.406287674316189</v>
+        <v>68.62525651936177</v>
       </c>
       <c r="S4" s="2">
         <f>'[1]Flexibility, Autumn'!S4*Scenarios!$B$6</f>
-        <v>71.033133045449759</v>
+        <v>86.420631060915468</v>
       </c>
       <c r="T4" s="2">
         <f>'[1]Flexibility, Autumn'!T4*Scenarios!$B$6</f>
-        <v>84.771054112260288</v>
+        <v>103.13451875187749</v>
       </c>
       <c r="U4" s="2">
         <f>'[1]Flexibility, Autumn'!U4*Scenarios!$B$6</f>
-        <v>80.818034668035892</v>
+        <v>98.325179499625193</v>
       </c>
       <c r="V4" s="2">
         <f>'[1]Flexibility, Autumn'!V4*Scenarios!$B$6</f>
-        <v>80.609272142020629</v>
+        <v>98.071193951380181</v>
       </c>
       <c r="W4" s="2">
         <f>'[1]Flexibility, Autumn'!W4*Scenarios!$B$6</f>
-        <v>74.582095987709138</v>
+        <v>90.738385381080647</v>
       </c>
       <c r="X4" s="2">
         <f>'[1]Flexibility, Autumn'!X4*Scenarios!$B$6</f>
-        <v>68.076786306072393</v>
+        <v>82.823867974478048</v>
       </c>
       <c r="Y4" s="2">
         <f>'[1]Flexibility, Autumn'!Y4*Scenarios!$B$6</f>
-        <v>64.413340688256255</v>
+        <v>78.366831256888176</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">

--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A515CE71-BBB0-420E-AD2D-E17ABB9739F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8479C7-2746-4579-9702-E55BC701EC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2242,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8479C7-2746-4579-9702-E55BC701EC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2697B37-5314-475F-9CA0-8893FC384503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2697B37-5314-475F-9CA0-8893FC384503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57E1A0-2DE8-42B8-B23C-E23F4FA49DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F57E1A0-2DE8-42B8-B23C-E23F4FA49DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABDF212-9327-4333-B529-CF71261A9D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABDF212-9327-4333-B529-CF71261A9D09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312FFCCC-2469-41F7-9891-B7D80433B126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30195" yWindow="-12885" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2245,16 +2245,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.6</v>
       </c>
       <c r="D1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="E1" s="1">
-        <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>0.2</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312FFCCC-2469-41F7-9891-B7D80433B126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170E748-0A72-4A9D-BDEB-A5BF1563F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30195" yWindow="-12885" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -2229,7 +2229,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2245,13 +2245,16 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>0.6</v>
+        <f>1/$B$1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <v>0.2</v>
+        <f t="shared" ref="D1:E1" si="0">1/$B$1</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <v>0.2</v>
+        <f t="shared" si="0"/>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3170E748-0A72-4A9D-BDEB-A5BF1563F66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAC612-8944-4415-85E4-6E45F345AB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS7/Market Data/CS7_market_data_2045.xlsx
+++ b/data/CS7/Market Data/CS7_market_data_2045.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS7\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CAC612-8944-4415-85E4-6E45F345AB8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F935732D-9862-4DD2-8A01-D5BE90FE828C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="67080" yWindow="-12555" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="72570" yWindow="3525" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
